--- a/2008-2010_data/Aaron_edited_Updated_Plot_Descriptions_2008.xlsx
+++ b/2008-2010_data/Aaron_edited_Updated_Plot_Descriptions_2008.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/2008-2010_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{44630416-5C07-4507-B10D-D16DA3FDA042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D657420C-9AE2-47B9-A5A0-9262F886DAAF}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{44630416-5C07-4507-B10D-D16DA3FDA042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEEA0DDA-F4B8-4472-AB9E-07F8B8EF0C68}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{01A16022-0774-4406-BE2F-C2E0B2DF9244}"/>
   </bookViews>
@@ -2665,10 +2665,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2960,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E836DEF4-28CB-4425-8E84-7BFB91628F1B}">
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A116" sqref="A116:XFD116"/>
     </sheetView>
   </sheetViews>
@@ -2973,7 +2969,7 @@
     <col min="5" max="5" width="29.7265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.453125" style="1"/>
@@ -6574,15 +6570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100838CD1DE87728B4A91AC01A490840121" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0286a0c1720992b0cd926edcb110b1cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6f6290a-188c-431b-bc1b-08909b9edd3c" xmlns:ns3="c4dec4b6-adc0-4ae7-a610-9837ec16b1be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fcb779e9d849f44277e6e1dd1ee1357" ns2:_="" ns3:_="">
     <xsd:import namespace="f6f6290a-188c-431b-bc1b-08909b9edd3c"/>
@@ -6795,15 +6782,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F11B11-C5BC-4B89-B5BF-220C80E1CA14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE7FAA4-310E-4441-86B2-26DB145E0C5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6820,4 +6808,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F11B11-C5BC-4B89-B5BF-220C80E1CA14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>